--- a/medicine/Enfance/Els_Beerten/Els_Beerten.xlsx
+++ b/medicine/Enfance/Els_Beerten/Els_Beerten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Els Beerten, née le 22 mars 1959 (65 ans) à Hasselt, est une écrivaine belge de langue néerlandaise, auteure de littérature d'enfance et de jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vreemde Eend, 1985
 - John Flandersprijs, 1985
@@ -566,12 +582,12 @@
 - Gouden Uil du jeune lecteur, 2009
 - De Gouden Lijst (2009)
 - Nienke van Hichtum-prijs, 2009
-- Prix de la Communauté flamande, 2011[1]
+- Prix de la Communauté flamande, 2011
 - Lod. Lavkiprijs, 2011
-- Bücherlöwe 2009[2]
+- Bücherlöwe 2009
 - traduit en français sous le titre Nous voulons tous le paradis par Maurice Lomré, Genève, Suisse, Éditions Joie de Lire, coll. « Encrage », 2015, 368 p.  (ISBN 978-2-88908-289-6)
 - traduit en français sous le titre Nous voulons tous le paradis. Le Procès (suite) par Maurice Lomré, Genève, Suisse, Éditions Joie de Lire, coll. « Encrage », 2016, 336 p.  (ISBN 978-2-88908-306-0)
-Eén mens is genoeg, 2014[3]</t>
+Eén mens is genoeg, 2014</t>
         </is>
       </c>
     </row>
